--- a/StructureDefinition-be-ext-Performer-reference.xlsx
+++ b/StructureDefinition-be-ext-Performer-reference.xlsx
@@ -662,42 +662,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-be-ext-Performer-reference.xlsx
+++ b/StructureDefinition-be-ext-Performer-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-be-ext-Performer-reference.xlsx
+++ b/StructureDefinition-be-ext-Performer-reference.xlsx
@@ -250,53 +250,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -904,7 +904,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -923,25 +923,25 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -992,13 +992,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -1007,12 +1007,12 @@
         <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1035,13 +1035,13 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1080,19 +1080,19 @@
         <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1104,7 +1104,7 @@
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1120,10 +1120,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
@@ -1197,10 +1197,10 @@
         <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
@@ -1225,7 +1225,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1300,7 +1300,7 @@
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
